--- a/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter03/Sort_03_01.xlsx
+++ b/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter03/Sort_03_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curtis\Documents\LinkedIn Learning\Excel for O365 PivotTables\Chapter03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier García\Downloads\Excel\Learning path 01\06\Modulo 02\Ex_Files_Excel_Pivot_Tables_Depth\Ex_Files_Excel_Pivot_Tables_Depth\Exercise Files\Chapter03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01211AF9-F9B3-47A0-9E20-310167E2FD68}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49300BB5-A5CE-46AA-B7CC-445E73ABB03F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" xr2:uid="{2E5CF44E-A048-4B93-98D9-BFC521C6FDBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2E5CF44E-A048-4B93-98D9-BFC521C6FDBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="179021" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -785,15 +785,6 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Column Labels</t>
-  </si>
-  <si>
     <t>2017</t>
   </si>
   <si>
@@ -801,6 +792,15 @@
   </si>
   <si>
     <t>Sum of Total Price</t>
+  </si>
+  <si>
+    <t>Etiquetas de columna</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
   </si>
 </sst>
 </file>
@@ -864,10 +864,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1196,7 +1196,60 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="ProductName" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="52">
+        <s v="K-Eco 625"/>
+        <s v="K-Invert 9K"/>
+        <s v="K-Invert 7K"/>
+        <s v="K-Eco 12-volt Lithium-ion solar backup battery"/>
+        <s v="K-Invert 13K"/>
+        <s v="K-Eco Mini "/>
+        <s v="K-Eco  AAA NiMH rechargeable batteries (12-pack)"/>
+        <s v="K-Eco Energy Bulbs 9W "/>
+        <s v="K-Eco Energy Bulbs 13W "/>
+        <s v="K-Eco Energy Bulbs 23W "/>
+        <s v="K-Eco 36-volt Lithium-ion solar backup battery"/>
+        <s v="K-Eco AA  NiMH rechargeable batteries (6-pack)"/>
+        <s v="K-Eco Energy Bulbs 13W  (8-pack)"/>
+        <s v="K-Eco Blast 100"/>
+        <s v="K-Eco Energy Bulbs 9W (4-pack)"/>
+        <s v="K-Eco Energy Bulbs 20W  (8-pack)"/>
+        <s v="K-Eco Energy Bulbs 20W (4-pack)"/>
+        <s v="K-Eco Blast 1200"/>
+        <s v="K-Eco 250"/>
+        <s v="K-Eco Energy Bulbs 9W  (8-pack)"/>
+        <s v="K-Invert 2K"/>
+        <s v="K-Eco phone charger"/>
+        <s v="K-Eco Energy Bulbs 23W  (8-pack)"/>
+        <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery"/>
+        <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery (4-pack)"/>
+        <s v="K-Eco Energy Bulbs 23W (4-pack)"/>
+        <s v="K-Eco 18-volt Lithium-ion solar backup battery"/>
+        <s v="K-Invert 4K"/>
+        <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery (12-pack)"/>
+        <s v="K-Eco 575"/>
+        <s v="K-Eco 180"/>
+        <s v="K-Eco Blast 200"/>
+        <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery (8-pack)"/>
+        <s v="K-Eco Breeze Mini "/>
+        <s v="K-Eco 275"/>
+        <s v="K-Eco 48-volt Lithium-ion solar backup battery"/>
+        <s v="K-Eco 325x (same power, smaller footprint)"/>
+        <s v="K-Eco Blast 400"/>
+        <s v="K-Eco  AAA NiMH rechargeable batteries  (6-pack)"/>
+        <s v="K-Eco 450"/>
+        <s v="K-Eco AA  NiMH rechargeable batteries (12-pack)"/>
+        <s v="K-Eco 225"/>
+        <s v="K-Invert 20K"/>
+        <s v="K-Eco 325"/>
+        <s v="K-Eco 250x (same power, smaller footprint)"/>
+        <s v="K-Eco 700"/>
+        <s v="K-Eco Blast 800"/>
+        <s v="K-Eco Energy Bulbs 13W (4-pack)"/>
+        <s v="K-Eco Blast 600"/>
+        <s v="K-Eco 300"/>
+        <s v="K-Eco Energy Bulbs 20W "/>
+        <s v="K-Eco 200"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Quantity" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="18"/>
@@ -1249,7 +1302,7 @@
     <x v="0"/>
     <x v="0"/>
     <s v="KE625"/>
-    <s v="K-Eco 625"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="1201.23"/>
     <n v="1201.23"/>
@@ -1261,7 +1314,7 @@
     <x v="0"/>
     <x v="1"/>
     <s v="KI9K"/>
-    <s v="K-Invert 9K"/>
+    <x v="1"/>
     <n v="10"/>
     <n v="19806"/>
     <n v="198060"/>
@@ -1273,7 +1326,7 @@
     <x v="1"/>
     <x v="1"/>
     <s v="KI7K"/>
-    <s v="K-Invert 7K"/>
+    <x v="2"/>
     <n v="2"/>
     <n v="10714"/>
     <n v="21428"/>
@@ -1285,7 +1338,7 @@
     <x v="2"/>
     <x v="2"/>
     <s v="KE12Li"/>
-    <s v="K-Eco 12-volt Lithium-ion solar backup battery"/>
+    <x v="3"/>
     <n v="8"/>
     <n v="4504"/>
     <n v="36032"/>
@@ -1297,7 +1350,7 @@
     <x v="3"/>
     <x v="1"/>
     <s v="KI13K"/>
-    <s v="K-Invert 13K"/>
+    <x v="4"/>
     <n v="11"/>
     <n v="28604"/>
     <n v="314644"/>
@@ -1309,7 +1362,7 @@
     <x v="4"/>
     <x v="0"/>
     <s v="KE5"/>
-    <s v="K-Eco Mini "/>
+    <x v="5"/>
     <n v="17"/>
     <n v="40.950000000000003"/>
     <n v="696.15000000000009"/>
@@ -1321,7 +1374,7 @@
     <x v="5"/>
     <x v="2"/>
     <s v="KEAAA12"/>
-    <s v="K-Eco  AAA NiMH rechargeable batteries (12-pack)"/>
+    <x v="6"/>
     <n v="7"/>
     <n v="12.8"/>
     <n v="89.600000000000009"/>
@@ -1333,7 +1386,7 @@
     <x v="6"/>
     <x v="3"/>
     <s v="KE9W"/>
-    <s v="K-Eco Energy Bulbs 9W "/>
+    <x v="7"/>
     <n v="10"/>
     <n v="9"/>
     <n v="90"/>
@@ -1345,7 +1398,7 @@
     <x v="7"/>
     <x v="3"/>
     <s v="KE13W"/>
-    <s v="K-Eco Energy Bulbs 13W "/>
+    <x v="8"/>
     <n v="1"/>
     <n v="5.24"/>
     <n v="5.24"/>
@@ -1357,7 +1410,7 @@
     <x v="7"/>
     <x v="3"/>
     <s v="KE23W"/>
-    <s v="K-Eco Energy Bulbs 23W "/>
+    <x v="9"/>
     <n v="11"/>
     <n v="13.8"/>
     <n v="151.80000000000001"/>
@@ -1369,7 +1422,7 @@
     <x v="8"/>
     <x v="2"/>
     <s v="KE36Li"/>
-    <s v="K-Eco 36-volt Lithium-ion solar backup battery"/>
+    <x v="10"/>
     <n v="11"/>
     <n v="7510"/>
     <n v="82610"/>
@@ -1381,7 +1434,7 @@
     <x v="9"/>
     <x v="2"/>
     <s v="KEAA06"/>
-    <s v="K-Eco AA  NiMH rechargeable batteries (6-pack)"/>
+    <x v="11"/>
     <n v="3"/>
     <n v="8.35"/>
     <n v="25.049999999999997"/>
@@ -1393,7 +1446,7 @@
     <x v="10"/>
     <x v="3"/>
     <s v="KE13W08"/>
-    <s v="K-Eco Energy Bulbs 13W  (8-pack)"/>
+    <x v="12"/>
     <n v="12"/>
     <n v="21.25"/>
     <n v="255"/>
@@ -1405,7 +1458,7 @@
     <x v="11"/>
     <x v="4"/>
     <s v="KEBL100"/>
-    <s v="K-Eco Blast 100"/>
+    <x v="13"/>
     <n v="5"/>
     <n v="282"/>
     <n v="1410"/>
@@ -1417,7 +1470,7 @@
     <x v="11"/>
     <x v="3"/>
     <s v="KE9W04"/>
-    <s v="K-Eco Energy Bulbs 9W (4-pack)"/>
+    <x v="14"/>
     <n v="2"/>
     <n v="8.1999999999999993"/>
     <n v="16.399999999999999"/>
@@ -1429,7 +1482,7 @@
     <x v="12"/>
     <x v="3"/>
     <s v="KE20W08"/>
-    <s v="K-Eco Energy Bulbs 20W  (8-pack)"/>
+    <x v="15"/>
     <n v="16"/>
     <n v="21.4"/>
     <n v="342.4"/>
@@ -1441,7 +1494,7 @@
     <x v="13"/>
     <x v="3"/>
     <s v="KE20W04"/>
-    <s v="K-Eco Energy Bulbs 20W (4-pack)"/>
+    <x v="16"/>
     <n v="7"/>
     <n v="17.45"/>
     <n v="122.14999999999999"/>
@@ -1453,7 +1506,7 @@
     <x v="14"/>
     <x v="4"/>
     <s v="KEBL1200"/>
-    <s v="K-Eco Blast 1200"/>
+    <x v="17"/>
     <n v="16"/>
     <n v="2310"/>
     <n v="36960"/>
@@ -1465,7 +1518,7 @@
     <x v="15"/>
     <x v="0"/>
     <s v="KE250"/>
-    <s v="K-Eco 250"/>
+    <x v="18"/>
     <n v="15"/>
     <n v="442.5"/>
     <n v="6637.5"/>
@@ -1477,7 +1530,7 @@
     <x v="16"/>
     <x v="3"/>
     <s v="KE9W08"/>
-    <s v="K-Eco Energy Bulbs 9W  (8-pack)"/>
+    <x v="19"/>
     <n v="9"/>
     <n v="16.5"/>
     <n v="148.5"/>
@@ -1489,7 +1542,7 @@
     <x v="17"/>
     <x v="1"/>
     <s v="KI2K"/>
-    <s v="K-Invert 2K"/>
+    <x v="20"/>
     <n v="14"/>
     <n v="3066"/>
     <n v="42924"/>
@@ -1501,7 +1554,7 @@
     <x v="18"/>
     <x v="0"/>
     <s v="KE001"/>
-    <s v="K-Eco phone charger"/>
+    <x v="21"/>
     <n v="15"/>
     <n v="23.85"/>
     <n v="357.75"/>
@@ -1513,7 +1566,7 @@
     <x v="19"/>
     <x v="3"/>
     <s v="KE23W08"/>
-    <s v="K-Eco Energy Bulbs 23W  (8-pack)"/>
+    <x v="22"/>
     <n v="16"/>
     <n v="20.5"/>
     <n v="328"/>
@@ -1525,7 +1578,7 @@
     <x v="20"/>
     <x v="5"/>
     <s v="KEPATH01"/>
-    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery"/>
+    <x v="23"/>
     <n v="4"/>
     <n v="13.25"/>
     <n v="53"/>
@@ -1537,7 +1590,7 @@
     <x v="21"/>
     <x v="5"/>
     <s v="KEPATH04"/>
-    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery (4-pack)"/>
+    <x v="24"/>
     <n v="7"/>
     <n v="21.03"/>
     <n v="147.21"/>
@@ -1549,7 +1602,7 @@
     <x v="22"/>
     <x v="3"/>
     <s v="KE23W04"/>
-    <s v="K-Eco Energy Bulbs 23W (4-pack)"/>
+    <x v="25"/>
     <n v="13"/>
     <n v="14"/>
     <n v="182"/>
@@ -1561,7 +1614,7 @@
     <x v="23"/>
     <x v="2"/>
     <s v="KE18Li"/>
-    <s v="K-Eco 18-volt Lithium-ion solar backup battery"/>
+    <x v="26"/>
     <n v="8"/>
     <n v="5205"/>
     <n v="41640"/>
@@ -1573,7 +1626,7 @@
     <x v="24"/>
     <x v="5"/>
     <s v="KEPATH04"/>
-    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery (4-pack)"/>
+    <x v="24"/>
     <n v="4"/>
     <n v="23.03"/>
     <n v="92.12"/>
@@ -1585,7 +1638,7 @@
     <x v="24"/>
     <x v="1"/>
     <s v="KI13K"/>
-    <s v="K-Invert 13K"/>
+    <x v="4"/>
     <n v="8"/>
     <n v="28606"/>
     <n v="228848"/>
@@ -1597,7 +1650,7 @@
     <x v="24"/>
     <x v="1"/>
     <s v="KI4K"/>
-    <s v="K-Invert 4K"/>
+    <x v="27"/>
     <n v="12"/>
     <n v="6128"/>
     <n v="73536"/>
@@ -1609,7 +1662,7 @@
     <x v="25"/>
     <x v="3"/>
     <s v="KE9W08"/>
-    <s v="K-Eco Energy Bulbs 9W  (8-pack)"/>
+    <x v="19"/>
     <n v="1"/>
     <n v="14.5"/>
     <n v="14.5"/>
@@ -1621,7 +1674,7 @@
     <x v="26"/>
     <x v="3"/>
     <s v="KE23W04"/>
-    <s v="K-Eco Energy Bulbs 23W (4-pack)"/>
+    <x v="25"/>
     <n v="14"/>
     <n v="13"/>
     <n v="182"/>
@@ -1633,7 +1686,7 @@
     <x v="27"/>
     <x v="2"/>
     <s v="KEAAA12"/>
-    <s v="K-Eco  AAA NiMH rechargeable batteries (12-pack)"/>
+    <x v="6"/>
     <n v="2"/>
     <n v="14.8"/>
     <n v="29.6"/>
@@ -1645,7 +1698,7 @@
     <x v="27"/>
     <x v="5"/>
     <s v="KEPATH12"/>
-    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery (12-pack)"/>
+    <x v="28"/>
     <n v="11"/>
     <n v="45.92"/>
     <n v="505.12"/>
@@ -1657,7 +1710,7 @@
     <x v="28"/>
     <x v="0"/>
     <s v="KE575"/>
-    <s v="K-Eco 575"/>
+    <x v="29"/>
     <n v="11"/>
     <n v="1012.25"/>
     <n v="11134.75"/>
@@ -1669,7 +1722,7 @@
     <x v="28"/>
     <x v="3"/>
     <s v="KE23W04"/>
-    <s v="K-Eco Energy Bulbs 23W (4-pack)"/>
+    <x v="25"/>
     <n v="9"/>
     <n v="19"/>
     <n v="171"/>
@@ -1681,7 +1734,7 @@
     <x v="29"/>
     <x v="2"/>
     <s v="KEAA06"/>
-    <s v="K-Eco AA  NiMH rechargeable batteries (6-pack)"/>
+    <x v="11"/>
     <n v="14"/>
     <n v="11.35"/>
     <n v="158.9"/>
@@ -1693,7 +1746,7 @@
     <x v="30"/>
     <x v="3"/>
     <s v="KE23W04"/>
-    <s v="K-Eco Energy Bulbs 23W (4-pack)"/>
+    <x v="25"/>
     <n v="5"/>
     <n v="15"/>
     <n v="75"/>
@@ -1705,7 +1758,7 @@
     <x v="31"/>
     <x v="0"/>
     <s v="KE180"/>
-    <s v="K-Eco 180"/>
+    <x v="30"/>
     <n v="8"/>
     <n v="317"/>
     <n v="2536"/>
@@ -1717,7 +1770,7 @@
     <x v="32"/>
     <x v="2"/>
     <s v="KEAAA12"/>
-    <s v="K-Eco  AAA NiMH rechargeable batteries (12-pack)"/>
+    <x v="6"/>
     <n v="13"/>
     <n v="18.8"/>
     <n v="244.4"/>
@@ -1729,7 +1782,7 @@
     <x v="33"/>
     <x v="4"/>
     <s v="KEBL200"/>
-    <s v="K-Eco Blast 200"/>
+    <x v="31"/>
     <n v="3"/>
     <n v="557"/>
     <n v="1671"/>
@@ -1741,7 +1794,7 @@
     <x v="34"/>
     <x v="3"/>
     <s v="KE23W04"/>
-    <s v="K-Eco Energy Bulbs 23W (4-pack)"/>
+    <x v="25"/>
     <n v="16"/>
     <n v="14"/>
     <n v="224"/>
@@ -1753,7 +1806,7 @@
     <x v="35"/>
     <x v="5"/>
     <s v="KEPATH08"/>
-    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery (8-pack)"/>
+    <x v="32"/>
     <n v="18"/>
     <n v="42.18"/>
     <n v="759.24"/>
@@ -1765,7 +1818,7 @@
     <x v="36"/>
     <x v="5"/>
     <s v="KEPATH01"/>
-    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery"/>
+    <x v="23"/>
     <n v="5"/>
     <n v="7.25"/>
     <n v="36.25"/>
@@ -1777,7 +1830,7 @@
     <x v="37"/>
     <x v="3"/>
     <s v="KE23W08"/>
-    <s v="K-Eco Energy Bulbs 23W  (8-pack)"/>
+    <x v="22"/>
     <n v="9"/>
     <n v="20.5"/>
     <n v="184.5"/>
@@ -1789,7 +1842,7 @@
     <x v="38"/>
     <x v="0"/>
     <s v="KE575"/>
-    <s v="K-Eco 575"/>
+    <x v="29"/>
     <n v="18"/>
     <n v="1015.25"/>
     <n v="18274.5"/>
@@ -1801,7 +1854,7 @@
     <x v="39"/>
     <x v="5"/>
     <s v="KEPATH01"/>
-    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery"/>
+    <x v="23"/>
     <n v="12"/>
     <n v="11.25"/>
     <n v="135"/>
@@ -1813,7 +1866,7 @@
     <x v="40"/>
     <x v="4"/>
     <s v="KEBR5"/>
-    <s v="K-Eco Breeze Mini "/>
+    <x v="33"/>
     <n v="10"/>
     <n v="58"/>
     <n v="580"/>
@@ -1825,7 +1878,7 @@
     <x v="41"/>
     <x v="0"/>
     <s v="KE275"/>
-    <s v="K-Eco 275"/>
+    <x v="34"/>
     <n v="7"/>
     <n v="488.25"/>
     <n v="3417.75"/>
@@ -1837,7 +1890,7 @@
     <x v="42"/>
     <x v="2"/>
     <s v="KE48Li"/>
-    <s v="K-Eco 48-volt Lithium-ion solar backup battery"/>
+    <x v="35"/>
     <n v="10"/>
     <n v="13235"/>
     <n v="132350"/>
@@ -1849,7 +1902,7 @@
     <x v="43"/>
     <x v="3"/>
     <s v="KE20W08"/>
-    <s v="K-Eco Energy Bulbs 20W  (8-pack)"/>
+    <x v="15"/>
     <n v="2"/>
     <n v="14.4"/>
     <n v="28.8"/>
@@ -1861,7 +1914,7 @@
     <x v="44"/>
     <x v="2"/>
     <s v="KE18Li"/>
-    <s v="K-Eco 18-volt Lithium-ion solar backup battery"/>
+    <x v="26"/>
     <n v="1"/>
     <n v="5201"/>
     <n v="5201"/>
@@ -1873,7 +1926,7 @@
     <x v="44"/>
     <x v="3"/>
     <s v="KE13W08"/>
-    <s v="K-Eco Energy Bulbs 13W  (8-pack)"/>
+    <x v="12"/>
     <n v="14"/>
     <n v="14.25"/>
     <n v="199.5"/>
@@ -1885,7 +1938,7 @@
     <x v="45"/>
     <x v="3"/>
     <s v="KE9W08"/>
-    <s v="K-Eco Energy Bulbs 9W  (8-pack)"/>
+    <x v="19"/>
     <n v="11"/>
     <n v="12.5"/>
     <n v="137.5"/>
@@ -1897,7 +1950,7 @@
     <x v="46"/>
     <x v="0"/>
     <s v="KE325X"/>
-    <s v="K-Eco 325x (same power, smaller footprint)"/>
+    <x v="36"/>
     <n v="11"/>
     <n v="895.5"/>
     <n v="9850.5"/>
@@ -1909,7 +1962,7 @@
     <x v="47"/>
     <x v="5"/>
     <s v="KEPATH08"/>
-    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery (8-pack)"/>
+    <x v="32"/>
     <n v="10"/>
     <n v="43.18"/>
     <n v="431.8"/>
@@ -1921,7 +1974,7 @@
     <x v="48"/>
     <x v="0"/>
     <s v="KE001"/>
-    <s v="K-Eco phone charger"/>
+    <x v="21"/>
     <n v="17"/>
     <n v="19.850000000000001"/>
     <n v="337.45000000000005"/>
@@ -1933,7 +1986,7 @@
     <x v="49"/>
     <x v="4"/>
     <s v="KEBL400"/>
-    <s v="K-Eco Blast 400"/>
+    <x v="37"/>
     <n v="8"/>
     <n v="889"/>
     <n v="7112"/>
@@ -1945,7 +1998,7 @@
     <x v="50"/>
     <x v="2"/>
     <s v="KEAAA06"/>
-    <s v="K-Eco  AAA NiMH rechargeable batteries  (6-pack)"/>
+    <x v="38"/>
     <n v="12"/>
     <n v="2.65"/>
     <n v="31.799999999999997"/>
@@ -1957,7 +2010,7 @@
     <x v="51"/>
     <x v="3"/>
     <s v="KE23W08"/>
-    <s v="K-Eco Energy Bulbs 23W  (8-pack)"/>
+    <x v="22"/>
     <n v="9"/>
     <n v="26.5"/>
     <n v="238.5"/>
@@ -1969,7 +2022,7 @@
     <x v="52"/>
     <x v="3"/>
     <s v="KE9W"/>
-    <s v="K-Eco Energy Bulbs 9W "/>
+    <x v="7"/>
     <n v="9"/>
     <n v="7"/>
     <n v="63"/>
@@ -1981,7 +2034,7 @@
     <x v="53"/>
     <x v="2"/>
     <s v="KE36Li"/>
-    <s v="K-Eco 36-volt Lithium-ion solar backup battery"/>
+    <x v="10"/>
     <n v="14"/>
     <n v="7510"/>
     <n v="105140"/>
@@ -1993,7 +2046,7 @@
     <x v="53"/>
     <x v="0"/>
     <s v="KE625"/>
-    <s v="K-Eco 625"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="1204.23"/>
     <n v="6021.15"/>
@@ -2005,7 +2058,7 @@
     <x v="54"/>
     <x v="3"/>
     <s v="KE23W04"/>
-    <s v="K-Eco Energy Bulbs 23W (4-pack)"/>
+    <x v="25"/>
     <n v="4"/>
     <n v="16"/>
     <n v="64"/>
@@ -2017,7 +2070,7 @@
     <x v="55"/>
     <x v="4"/>
     <s v="KEBL100"/>
-    <s v="K-Eco Blast 100"/>
+    <x v="13"/>
     <n v="2"/>
     <n v="285"/>
     <n v="570"/>
@@ -2029,7 +2082,7 @@
     <x v="56"/>
     <x v="0"/>
     <s v="KE450"/>
-    <s v="K-Eco 450"/>
+    <x v="39"/>
     <n v="12"/>
     <n v="796.5"/>
     <n v="9558"/>
@@ -2041,7 +2094,7 @@
     <x v="57"/>
     <x v="2"/>
     <s v="KEAA12"/>
-    <s v="K-Eco AA  NiMH rechargeable batteries (12-pack)"/>
+    <x v="40"/>
     <n v="18"/>
     <n v="13.5"/>
     <n v="243"/>
@@ -2053,7 +2106,7 @@
     <x v="58"/>
     <x v="3"/>
     <s v="KE20W08"/>
-    <s v="K-Eco Energy Bulbs 20W  (8-pack)"/>
+    <x v="15"/>
     <n v="7"/>
     <n v="14.4"/>
     <n v="100.8"/>
@@ -2065,7 +2118,7 @@
     <x v="59"/>
     <x v="0"/>
     <s v="KE225"/>
-    <s v="K-Eco 225"/>
+    <x v="41"/>
     <n v="12"/>
     <n v="391"/>
     <n v="4692"/>
@@ -2077,7 +2130,7 @@
     <x v="60"/>
     <x v="2"/>
     <s v="KEAAA06"/>
-    <s v="K-Eco  AAA NiMH rechargeable batteries  (6-pack)"/>
+    <x v="38"/>
     <n v="7"/>
     <n v="16.5"/>
     <n v="115.5"/>
@@ -2089,7 +2142,7 @@
     <x v="61"/>
     <x v="1"/>
     <s v="KI20K"/>
-    <s v="K-Invert 20K"/>
+    <x v="42"/>
     <n v="4"/>
     <n v="44001"/>
     <n v="176004"/>
@@ -2101,7 +2154,7 @@
     <x v="62"/>
     <x v="0"/>
     <s v="KE325"/>
-    <s v="K-Eco 325"/>
+    <x v="43"/>
     <n v="7"/>
     <n v="576.75"/>
     <n v="4037.25"/>
@@ -2113,7 +2166,7 @@
     <x v="63"/>
     <x v="0"/>
     <s v="KE250X"/>
-    <s v="K-Eco 250x (same power, smaller footprint)"/>
+    <x v="44"/>
     <n v="16"/>
     <n v="660"/>
     <n v="10560"/>
@@ -2125,7 +2178,7 @@
     <x v="64"/>
     <x v="2"/>
     <s v="KEAAA06"/>
-    <s v="K-Eco  AAA NiMH rechargeable batteries  (6-pack)"/>
+    <x v="38"/>
     <n v="11"/>
     <n v="12.5"/>
     <n v="137.5"/>
@@ -2137,7 +2190,7 @@
     <x v="65"/>
     <x v="0"/>
     <s v="KE5"/>
-    <s v="K-Eco Mini "/>
+    <x v="5"/>
     <n v="6"/>
     <n v="46.95"/>
     <n v="281.70000000000005"/>
@@ -2149,7 +2202,7 @@
     <x v="65"/>
     <x v="1"/>
     <s v="KI20K"/>
-    <s v="K-Invert 20K"/>
+    <x v="42"/>
     <n v="6"/>
     <n v="44006"/>
     <n v="264036"/>
@@ -2161,7 +2214,7 @@
     <x v="66"/>
     <x v="3"/>
     <s v="KE13W08"/>
-    <s v="K-Eco Energy Bulbs 13W  (8-pack)"/>
+    <x v="12"/>
     <n v="1"/>
     <n v="21.25"/>
     <n v="21.25"/>
@@ -2173,7 +2226,7 @@
     <x v="67"/>
     <x v="4"/>
     <s v="KEBL100"/>
-    <s v="K-Eco Blast 100"/>
+    <x v="13"/>
     <n v="8"/>
     <n v="290"/>
     <n v="2320"/>
@@ -2185,7 +2238,7 @@
     <x v="68"/>
     <x v="2"/>
     <s v="KEAA06"/>
-    <s v="K-Eco AA  NiMH rechargeable batteries (6-pack)"/>
+    <x v="11"/>
     <n v="8"/>
     <n v="10.35"/>
     <n v="82.8"/>
@@ -2197,7 +2250,7 @@
     <x v="69"/>
     <x v="0"/>
     <s v="KE325X"/>
-    <s v="K-Eco 325x (same power, smaller footprint)"/>
+    <x v="36"/>
     <n v="14"/>
     <n v="891.5"/>
     <n v="12481"/>
@@ -2209,7 +2262,7 @@
     <x v="70"/>
     <x v="4"/>
     <s v="KEBL400"/>
-    <s v="K-Eco Blast 400"/>
+    <x v="37"/>
     <n v="1"/>
     <n v="883"/>
     <n v="883"/>
@@ -2221,7 +2274,7 @@
     <x v="70"/>
     <x v="5"/>
     <s v="KEPATH04"/>
-    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery (4-pack)"/>
+    <x v="24"/>
     <n v="11"/>
     <n v="29.03"/>
     <n v="319.33000000000004"/>
@@ -2233,7 +2286,7 @@
     <x v="71"/>
     <x v="3"/>
     <s v="KE20W08"/>
-    <s v="K-Eco Energy Bulbs 20W  (8-pack)"/>
+    <x v="15"/>
     <n v="3"/>
     <n v="13.4"/>
     <n v="40.200000000000003"/>
@@ -2245,7 +2298,7 @@
     <x v="72"/>
     <x v="1"/>
     <s v="KI9K"/>
-    <s v="K-Invert 9K"/>
+    <x v="1"/>
     <n v="3"/>
     <n v="19803"/>
     <n v="59409"/>
@@ -2257,7 +2310,7 @@
     <x v="73"/>
     <x v="0"/>
     <s v="KE700"/>
-    <s v="K-Eco 700"/>
+    <x v="45"/>
     <n v="4"/>
     <n v="1504"/>
     <n v="6016"/>
@@ -2269,7 +2322,7 @@
     <x v="74"/>
     <x v="2"/>
     <s v="KE48Li"/>
-    <s v="K-Eco 48-volt Lithium-ion solar backup battery"/>
+    <x v="35"/>
     <n v="10"/>
     <n v="13242"/>
     <n v="132420"/>
@@ -2281,7 +2334,7 @@
     <x v="74"/>
     <x v="4"/>
     <s v="KEBL800"/>
-    <s v="K-Eco Blast 800"/>
+    <x v="46"/>
     <n v="9"/>
     <n v="1284"/>
     <n v="11556"/>
@@ -2293,7 +2346,7 @@
     <x v="75"/>
     <x v="2"/>
     <s v="KEAA06"/>
-    <s v="K-Eco AA  NiMH rechargeable batteries (6-pack)"/>
+    <x v="11"/>
     <n v="5"/>
     <n v="16.350000000000001"/>
     <n v="81.75"/>
@@ -2305,7 +2358,7 @@
     <x v="76"/>
     <x v="3"/>
     <s v="KE23W08"/>
-    <s v="K-Eco Energy Bulbs 23W  (8-pack)"/>
+    <x v="22"/>
     <n v="7"/>
     <n v="27.5"/>
     <n v="192.5"/>
@@ -2317,7 +2370,7 @@
     <x v="76"/>
     <x v="3"/>
     <s v="KE9W"/>
-    <s v="K-Eco Energy Bulbs 9W "/>
+    <x v="7"/>
     <n v="5"/>
     <n v="4"/>
     <n v="20"/>
@@ -2329,7 +2382,7 @@
     <x v="77"/>
     <x v="3"/>
     <s v="KE23W04"/>
-    <s v="K-Eco Energy Bulbs 23W (4-pack)"/>
+    <x v="25"/>
     <n v="12"/>
     <n v="18"/>
     <n v="216"/>
@@ -2341,7 +2394,7 @@
     <x v="78"/>
     <x v="3"/>
     <s v="KE13W04"/>
-    <s v="K-Eco Energy Bulbs 13W (4-pack)"/>
+    <x v="47"/>
     <n v="7"/>
     <n v="16.55"/>
     <n v="115.85000000000001"/>
@@ -2353,7 +2406,7 @@
     <x v="79"/>
     <x v="4"/>
     <s v="KEBL600"/>
-    <s v="K-Eco Blast 600"/>
+    <x v="48"/>
     <n v="9"/>
     <n v="1034"/>
     <n v="9306"/>
@@ -2365,7 +2418,7 @@
     <x v="80"/>
     <x v="0"/>
     <s v="KE300"/>
-    <s v="K-Eco 300"/>
+    <x v="49"/>
     <n v="10"/>
     <n v="531"/>
     <n v="5310"/>
@@ -2377,7 +2430,7 @@
     <x v="81"/>
     <x v="3"/>
     <s v="KE20W08"/>
-    <s v="K-Eco Energy Bulbs 20W  (8-pack)"/>
+    <x v="15"/>
     <n v="4"/>
     <n v="14.4"/>
     <n v="57.6"/>
@@ -2389,7 +2442,7 @@
     <x v="82"/>
     <x v="2"/>
     <s v="KE12Li"/>
-    <s v="K-Eco 12-volt Lithium-ion solar backup battery"/>
+    <x v="3"/>
     <n v="18"/>
     <n v="4509"/>
     <n v="81162"/>
@@ -2401,7 +2454,7 @@
     <x v="83"/>
     <x v="0"/>
     <s v="KE001"/>
-    <s v="K-Eco phone charger"/>
+    <x v="21"/>
     <n v="8"/>
     <n v="18.850000000000001"/>
     <n v="150.80000000000001"/>
@@ -2413,7 +2466,7 @@
     <x v="84"/>
     <x v="4"/>
     <s v="KEBL800"/>
-    <s v="K-Eco Blast 800"/>
+    <x v="46"/>
     <n v="4"/>
     <n v="1282"/>
     <n v="5128"/>
@@ -2425,7 +2478,7 @@
     <x v="85"/>
     <x v="0"/>
     <s v="KE625"/>
-    <s v="K-Eco 625"/>
+    <x v="0"/>
     <n v="3"/>
     <n v="1201.23"/>
     <n v="3603.69"/>
@@ -2437,7 +2490,7 @@
     <x v="85"/>
     <x v="0"/>
     <s v="KE5"/>
-    <s v="K-Eco Mini "/>
+    <x v="5"/>
     <n v="7"/>
     <n v="43.95"/>
     <n v="307.65000000000003"/>
@@ -2449,7 +2502,7 @@
     <x v="86"/>
     <x v="0"/>
     <s v="KE450"/>
-    <s v="K-Eco 450"/>
+    <x v="39"/>
     <n v="15"/>
     <n v="797.5"/>
     <n v="11962.5"/>
@@ -2461,7 +2514,7 @@
     <x v="87"/>
     <x v="0"/>
     <s v="KE180"/>
-    <s v="K-Eco 180"/>
+    <x v="30"/>
     <n v="9"/>
     <n v="324"/>
     <n v="2916"/>
@@ -2473,7 +2526,7 @@
     <x v="88"/>
     <x v="1"/>
     <s v="KI7K"/>
-    <s v="K-Invert 7K"/>
+    <x v="2"/>
     <n v="13"/>
     <n v="10718"/>
     <n v="139334"/>
@@ -2485,7 +2538,7 @@
     <x v="89"/>
     <x v="3"/>
     <s v="KE23W"/>
-    <s v="K-Eco Energy Bulbs 23W "/>
+    <x v="9"/>
     <n v="15"/>
     <n v="13.8"/>
     <n v="207"/>
@@ -2497,7 +2550,7 @@
     <x v="90"/>
     <x v="4"/>
     <s v="KEBL1200"/>
-    <s v="K-Eco Blast 1200"/>
+    <x v="17"/>
     <n v="8"/>
     <n v="2310"/>
     <n v="18480"/>
@@ -2509,7 +2562,7 @@
     <x v="91"/>
     <x v="3"/>
     <s v="KE23W"/>
-    <s v="K-Eco Energy Bulbs 23W "/>
+    <x v="9"/>
     <n v="7"/>
     <n v="13.8"/>
     <n v="96.600000000000009"/>
@@ -2521,7 +2574,7 @@
     <x v="92"/>
     <x v="2"/>
     <s v="KEAA12"/>
-    <s v="K-Eco AA  NiMH rechargeable batteries (12-pack)"/>
+    <x v="40"/>
     <n v="17"/>
     <n v="18.5"/>
     <n v="314.5"/>
@@ -2533,7 +2586,7 @@
     <x v="93"/>
     <x v="3"/>
     <s v="KE20W04"/>
-    <s v="K-Eco Energy Bulbs 20W (4-pack)"/>
+    <x v="16"/>
     <n v="12"/>
     <n v="14.45"/>
     <n v="173.39999999999998"/>
@@ -2545,7 +2598,7 @@
     <x v="93"/>
     <x v="5"/>
     <s v="KEPATH08"/>
-    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery (8-pack)"/>
+    <x v="32"/>
     <n v="13"/>
     <n v="37.18"/>
     <n v="483.34"/>
@@ -2557,7 +2610,7 @@
     <x v="94"/>
     <x v="4"/>
     <s v="KEBL100"/>
-    <s v="K-Eco Blast 100"/>
+    <x v="13"/>
     <n v="15"/>
     <n v="289"/>
     <n v="4335"/>
@@ -2569,7 +2622,7 @@
     <x v="95"/>
     <x v="4"/>
     <s v="KEBL200"/>
-    <s v="K-Eco Blast 200"/>
+    <x v="31"/>
     <n v="13"/>
     <n v="558"/>
     <n v="7254"/>
@@ -2581,7 +2634,7 @@
     <x v="96"/>
     <x v="4"/>
     <s v="KEBL400"/>
-    <s v="K-Eco Blast 400"/>
+    <x v="37"/>
     <n v="10"/>
     <n v="886"/>
     <n v="8860"/>
@@ -2593,7 +2646,7 @@
     <x v="96"/>
     <x v="3"/>
     <s v="KE23W"/>
-    <s v="K-Eco Energy Bulbs 23W "/>
+    <x v="9"/>
     <n v="3"/>
     <n v="13.8"/>
     <n v="41.400000000000006"/>
@@ -2605,7 +2658,7 @@
     <x v="96"/>
     <x v="1"/>
     <s v="KI2K"/>
-    <s v="K-Invert 2K"/>
+    <x v="20"/>
     <n v="8"/>
     <n v="3064"/>
     <n v="24512"/>
@@ -2617,7 +2670,7 @@
     <x v="96"/>
     <x v="1"/>
     <s v="KI4K"/>
-    <s v="K-Invert 4K"/>
+    <x v="27"/>
     <n v="7"/>
     <n v="6127"/>
     <n v="42889"/>
@@ -2629,7 +2682,7 @@
     <x v="97"/>
     <x v="4"/>
     <s v="KEBL400"/>
-    <s v="K-Eco Blast 400"/>
+    <x v="37"/>
     <n v="4"/>
     <n v="882"/>
     <n v="3528"/>
@@ -2641,7 +2694,7 @@
     <x v="97"/>
     <x v="3"/>
     <s v="KE9W"/>
-    <s v="K-Eco Energy Bulbs 9W "/>
+    <x v="7"/>
     <n v="9"/>
     <n v="12"/>
     <n v="108"/>
@@ -2653,7 +2706,7 @@
     <x v="98"/>
     <x v="0"/>
     <s v="KE001"/>
-    <s v="K-Eco phone charger"/>
+    <x v="21"/>
     <n v="12"/>
     <n v="17.850000000000001"/>
     <n v="214.20000000000002"/>
@@ -2665,7 +2718,7 @@
     <x v="98"/>
     <x v="5"/>
     <s v="KEPATH12"/>
-    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery (12-pack)"/>
+    <x v="28"/>
     <n v="15"/>
     <n v="47.92"/>
     <n v="718.80000000000007"/>
@@ -2677,7 +2730,7 @@
     <x v="99"/>
     <x v="0"/>
     <s v="KE180"/>
-    <s v="K-Eco 180"/>
+    <x v="30"/>
     <n v="14"/>
     <n v="320"/>
     <n v="4480"/>
@@ -2689,7 +2742,7 @@
     <x v="100"/>
     <x v="3"/>
     <s v="KE20W"/>
-    <s v="K-Eco Energy Bulbs 20W "/>
+    <x v="50"/>
     <n v="17"/>
     <n v="9.65"/>
     <n v="164.05"/>
@@ -2701,7 +2754,7 @@
     <x v="101"/>
     <x v="2"/>
     <s v="KEAAA06"/>
-    <s v="K-Eco  AAA NiMH rechargeable batteries  (6-pack)"/>
+    <x v="38"/>
     <n v="7"/>
     <n v="9.5"/>
     <n v="66.5"/>
@@ -2713,7 +2766,7 @@
     <x v="102"/>
     <x v="0"/>
     <s v="KE200"/>
-    <s v="K-Eco 200"/>
+    <x v="51"/>
     <n v="14"/>
     <n v="360"/>
     <n v="5040"/>
@@ -2725,7 +2778,7 @@
     <x v="103"/>
     <x v="4"/>
     <s v="KEBL100"/>
-    <s v="K-Eco Blast 100"/>
+    <x v="13"/>
     <n v="14"/>
     <n v="281"/>
     <n v="3934"/>
@@ -2737,7 +2790,7 @@
     <x v="104"/>
     <x v="0"/>
     <s v="KE200"/>
-    <s v="K-Eco 200"/>
+    <x v="51"/>
     <n v="8"/>
     <n v="351"/>
     <n v="2808"/>
@@ -2749,7 +2802,7 @@
     <x v="105"/>
     <x v="4"/>
     <s v="KEBR5"/>
-    <s v="K-Eco Breeze Mini "/>
+    <x v="33"/>
     <n v="16"/>
     <n v="59"/>
     <n v="944"/>
@@ -2761,7 +2814,7 @@
     <x v="106"/>
     <x v="5"/>
     <s v="KEPATH01"/>
-    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery"/>
+    <x v="23"/>
     <n v="14"/>
     <n v="11.25"/>
     <n v="157.5"/>
@@ -2773,7 +2826,7 @@
     <x v="107"/>
     <x v="2"/>
     <s v="KEAA12"/>
-    <s v="K-Eco AA  NiMH rechargeable batteries (12-pack)"/>
+    <x v="40"/>
     <n v="10"/>
     <n v="18.5"/>
     <n v="185"/>
@@ -2785,7 +2838,7 @@
     <x v="108"/>
     <x v="4"/>
     <s v="KEBL600"/>
-    <s v="K-Eco Blast 600"/>
+    <x v="48"/>
     <n v="17"/>
     <n v="1032"/>
     <n v="17544"/>
@@ -2797,7 +2850,7 @@
     <x v="109"/>
     <x v="3"/>
     <s v="KE20W08"/>
-    <s v="K-Eco Energy Bulbs 20W  (8-pack)"/>
+    <x v="15"/>
     <n v="10"/>
     <n v="14.4"/>
     <n v="144"/>
@@ -2809,7 +2862,7 @@
     <x v="110"/>
     <x v="5"/>
     <s v="KEPATH12"/>
-    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery (12-pack)"/>
+    <x v="28"/>
     <n v="11"/>
     <n v="44.92"/>
     <n v="494.12"/>
@@ -2821,7 +2874,7 @@
     <x v="111"/>
     <x v="2"/>
     <s v="KEAAA06"/>
-    <s v="K-Eco  AAA NiMH rechargeable batteries  (6-pack)"/>
+    <x v="38"/>
     <n v="7"/>
     <n v="9.5"/>
     <n v="66.5"/>
@@ -2833,7 +2886,7 @@
     <x v="111"/>
     <x v="2"/>
     <s v="KEAA06"/>
-    <s v="K-Eco AA  NiMH rechargeable batteries (6-pack)"/>
+    <x v="11"/>
     <n v="9"/>
     <n v="11.35"/>
     <n v="102.14999999999999"/>
@@ -2845,7 +2898,7 @@
     <x v="111"/>
     <x v="4"/>
     <s v="KEBR5"/>
-    <s v="K-Eco Breeze Mini "/>
+    <x v="33"/>
     <n v="2"/>
     <n v="56"/>
     <n v="112"/>
@@ -2857,7 +2910,7 @@
     <x v="112"/>
     <x v="0"/>
     <s v="KE200"/>
-    <s v="K-Eco 200"/>
+    <x v="51"/>
     <n v="17"/>
     <n v="351"/>
     <n v="5967"/>
@@ -2869,7 +2922,7 @@
     <x v="113"/>
     <x v="3"/>
     <s v="KE20W"/>
-    <s v="K-Eco Energy Bulbs 20W "/>
+    <x v="50"/>
     <n v="13"/>
     <n v="11.65"/>
     <n v="151.45000000000002"/>
@@ -2881,7 +2934,7 @@
     <x v="114"/>
     <x v="4"/>
     <s v="KEBL200"/>
-    <s v="K-Eco Blast 200"/>
+    <x v="31"/>
     <n v="12"/>
     <n v="559"/>
     <n v="6708"/>
@@ -2893,7 +2946,7 @@
     <x v="115"/>
     <x v="3"/>
     <s v="KE20W08"/>
-    <s v="K-Eco Energy Bulbs 20W  (8-pack)"/>
+    <x v="15"/>
     <n v="8"/>
     <n v="14.4"/>
     <n v="115.2"/>
@@ -2905,7 +2958,7 @@
     <x v="116"/>
     <x v="5"/>
     <s v="KEPATH08"/>
-    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery (8-pack)"/>
+    <x v="32"/>
     <n v="7"/>
     <n v="37.18"/>
     <n v="260.26"/>
@@ -2917,7 +2970,7 @@
     <x v="117"/>
     <x v="3"/>
     <s v="KE9W08"/>
-    <s v="K-Eco Energy Bulbs 9W  (8-pack)"/>
+    <x v="19"/>
     <n v="16"/>
     <n v="14.5"/>
     <n v="232"/>
@@ -2929,7 +2982,7 @@
     <x v="118"/>
     <x v="2"/>
     <s v="KEAAA12"/>
-    <s v="K-Eco  AAA NiMH rechargeable batteries (12-pack)"/>
+    <x v="6"/>
     <n v="13"/>
     <n v="14.8"/>
     <n v="192.4"/>
@@ -2941,7 +2994,7 @@
     <x v="119"/>
     <x v="1"/>
     <s v="KI20K"/>
-    <s v="K-Invert 20K"/>
+    <x v="42"/>
     <n v="4"/>
     <n v="44006"/>
     <n v="176024"/>
@@ -2953,7 +3006,7 @@
     <x v="120"/>
     <x v="3"/>
     <s v="KE23W04"/>
-    <s v="K-Eco Energy Bulbs 23W (4-pack)"/>
+    <x v="25"/>
     <n v="14"/>
     <n v="15"/>
     <n v="210"/>
@@ -2965,7 +3018,7 @@
     <x v="121"/>
     <x v="3"/>
     <s v="KE9W"/>
-    <s v="K-Eco Energy Bulbs 9W "/>
+    <x v="7"/>
     <n v="17"/>
     <n v="4"/>
     <n v="68"/>
@@ -2977,7 +3030,7 @@
     <x v="122"/>
     <x v="0"/>
     <s v="KE200"/>
-    <s v="K-Eco 200"/>
+    <x v="51"/>
     <n v="14"/>
     <n v="351"/>
     <n v="4914"/>
@@ -2989,7 +3042,7 @@
     <x v="122"/>
     <x v="2"/>
     <s v="KE48Li"/>
-    <s v="K-Eco 48-volt Lithium-ion solar backup battery"/>
+    <x v="35"/>
     <n v="9"/>
     <n v="13242"/>
     <n v="119178"/>
@@ -3001,7 +3054,7 @@
     <x v="122"/>
     <x v="5"/>
     <s v="KEPATH04"/>
-    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery (4-pack)"/>
+    <x v="24"/>
     <n v="14"/>
     <n v="21.03"/>
     <n v="294.42"/>
@@ -3013,7 +3066,7 @@
     <x v="123"/>
     <x v="3"/>
     <s v="KE23W08"/>
-    <s v="K-Eco Energy Bulbs 23W  (8-pack)"/>
+    <x v="22"/>
     <n v="17"/>
     <n v="26.5"/>
     <n v="450.5"/>
@@ -3025,7 +3078,7 @@
     <x v="124"/>
     <x v="3"/>
     <s v="KE9W"/>
-    <s v="K-Eco Energy Bulbs 9W "/>
+    <x v="7"/>
     <n v="9"/>
     <n v="12"/>
     <n v="108"/>
@@ -3037,7 +3090,7 @@
     <x v="125"/>
     <x v="5"/>
     <s v="KEPATH08"/>
-    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery (8-pack)"/>
+    <x v="32"/>
     <n v="15"/>
     <n v="42.18"/>
     <n v="632.70000000000005"/>
@@ -3049,7 +3102,7 @@
     <x v="126"/>
     <x v="0"/>
     <s v="KE625"/>
-    <s v="K-Eco 625"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="1204.23"/>
     <n v="6021.15"/>
@@ -3061,7 +3114,7 @@
     <x v="127"/>
     <x v="4"/>
     <s v="KEBL100"/>
-    <s v="K-Eco Blast 100"/>
+    <x v="13"/>
     <n v="1"/>
     <n v="285"/>
     <n v="285"/>
@@ -3073,7 +3126,7 @@
     <x v="128"/>
     <x v="0"/>
     <s v="KE225"/>
-    <s v="K-Eco 225"/>
+    <x v="41"/>
     <n v="14"/>
     <n v="391"/>
     <n v="5474"/>
@@ -3085,7 +3138,7 @@
     <x v="128"/>
     <x v="3"/>
     <s v="KE23W"/>
-    <s v="K-Eco Energy Bulbs 23W "/>
+    <x v="9"/>
     <n v="15"/>
     <n v="13.8"/>
     <n v="207"/>
@@ -3097,7 +3150,7 @@
     <x v="128"/>
     <x v="5"/>
     <s v="KEPATH01"/>
-    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery"/>
+    <x v="23"/>
     <n v="11"/>
     <n v="11.25"/>
     <n v="123.75"/>
@@ -3109,7 +3162,7 @@
     <x v="129"/>
     <x v="4"/>
     <s v="KEBL200"/>
-    <s v="K-Eco Blast 200"/>
+    <x v="31"/>
     <n v="13"/>
     <n v="559"/>
     <n v="7267"/>
@@ -3121,7 +3174,7 @@
     <x v="129"/>
     <x v="3"/>
     <s v="KE9W04"/>
-    <s v="K-Eco Energy Bulbs 9W (4-pack)"/>
+    <x v="14"/>
     <n v="6"/>
     <n v="8.1999999999999993"/>
     <n v="49.199999999999996"/>
@@ -3133,7 +3186,7 @@
     <x v="130"/>
     <x v="2"/>
     <s v="KEAA12"/>
-    <s v="K-Eco AA  NiMH rechargeable batteries (12-pack)"/>
+    <x v="40"/>
     <n v="4"/>
     <n v="18.5"/>
     <n v="74"/>
@@ -3145,7 +3198,7 @@
     <x v="131"/>
     <x v="2"/>
     <s v="KE36Li"/>
-    <s v="K-Eco 36-volt Lithium-ion solar backup battery"/>
+    <x v="10"/>
     <n v="7"/>
     <n v="7510"/>
     <n v="52570"/>
@@ -3157,7 +3210,7 @@
     <x v="131"/>
     <x v="3"/>
     <s v="KE20W04"/>
-    <s v="K-Eco Energy Bulbs 20W (4-pack)"/>
+    <x v="16"/>
     <n v="11"/>
     <n v="14.45"/>
     <n v="158.94999999999999"/>
@@ -3169,7 +3222,7 @@
     <x v="132"/>
     <x v="0"/>
     <s v="KE180"/>
-    <s v="K-Eco 180"/>
+    <x v="30"/>
     <n v="9"/>
     <n v="320"/>
     <n v="2880"/>
@@ -3181,7 +3234,7 @@
     <x v="133"/>
     <x v="4"/>
     <s v="KEBL1200"/>
-    <s v="K-Eco Blast 1200"/>
+    <x v="17"/>
     <n v="13"/>
     <n v="2310"/>
     <n v="30030"/>
@@ -3193,7 +3246,7 @@
     <x v="134"/>
     <x v="5"/>
     <s v="KEPATH12"/>
-    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery (12-pack)"/>
+    <x v="28"/>
     <n v="15"/>
     <n v="47.92"/>
     <n v="718.80000000000007"/>
@@ -3205,7 +3258,7 @@
     <x v="134"/>
     <x v="5"/>
     <s v="KEPATH04"/>
-    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery (4-pack)"/>
+    <x v="24"/>
     <n v="16"/>
     <n v="29.03"/>
     <n v="464.48"/>
@@ -3217,7 +3270,7 @@
     <x v="135"/>
     <x v="3"/>
     <s v="KE23W08"/>
-    <s v="K-Eco Energy Bulbs 23W  (8-pack)"/>
+    <x v="22"/>
     <n v="7"/>
     <n v="20.5"/>
     <n v="143.5"/>
@@ -3229,7 +3282,7 @@
     <x v="136"/>
     <x v="3"/>
     <s v="KE13W"/>
-    <s v="K-Eco Energy Bulbs 13W "/>
+    <x v="8"/>
     <n v="12"/>
     <n v="5.24"/>
     <n v="62.88"/>
@@ -3241,7 +3294,7 @@
     <x v="137"/>
     <x v="2"/>
     <s v="KEAAA06"/>
-    <s v="K-Eco  AAA NiMH rechargeable batteries  (6-pack)"/>
+    <x v="38"/>
     <n v="18"/>
     <n v="16.5"/>
     <n v="297"/>
@@ -3253,7 +3306,7 @@
     <x v="137"/>
     <x v="4"/>
     <s v="KEBL600"/>
-    <s v="K-Eco Blast 600"/>
+    <x v="48"/>
     <n v="15"/>
     <n v="1034"/>
     <n v="15510"/>
@@ -3265,7 +3318,7 @@
     <x v="138"/>
     <x v="5"/>
     <s v="KEPATH12"/>
-    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery (12-pack)"/>
+    <x v="28"/>
     <n v="18"/>
     <n v="45.92"/>
     <n v="826.56000000000006"/>
@@ -3277,7 +3330,7 @@
     <x v="139"/>
     <x v="3"/>
     <s v="KE9W"/>
-    <s v="K-Eco Energy Bulbs 9W "/>
+    <x v="7"/>
     <n v="16"/>
     <n v="9"/>
     <n v="144"/>
@@ -3289,7 +3342,7 @@
     <x v="140"/>
     <x v="2"/>
     <s v="KE18Li"/>
-    <s v="K-Eco 18-volt Lithium-ion solar backup battery"/>
+    <x v="26"/>
     <n v="15"/>
     <n v="5201"/>
     <n v="78015"/>
@@ -3301,7 +3354,7 @@
     <x v="141"/>
     <x v="0"/>
     <s v="KE001"/>
-    <s v="K-Eco phone charger"/>
+    <x v="21"/>
     <n v="6"/>
     <n v="23.85"/>
     <n v="143.10000000000002"/>
@@ -3313,7 +3366,7 @@
     <x v="142"/>
     <x v="3"/>
     <s v="KE20W08"/>
-    <s v="K-Eco Energy Bulbs 20W  (8-pack)"/>
+    <x v="15"/>
     <n v="10"/>
     <n v="14.4"/>
     <n v="144"/>
@@ -3325,7 +3378,7 @@
     <x v="143"/>
     <x v="2"/>
     <s v="KEAA06"/>
-    <s v="K-Eco AA  NiMH rechargeable batteries (6-pack)"/>
+    <x v="11"/>
     <n v="10"/>
     <n v="11.35"/>
     <n v="113.5"/>
@@ -3337,7 +3390,7 @@
     <x v="144"/>
     <x v="2"/>
     <s v="KE12Li"/>
-    <s v="K-Eco 12-volt Lithium-ion solar backup battery"/>
+    <x v="3"/>
     <n v="5"/>
     <n v="4509"/>
     <n v="22545"/>
@@ -3349,7 +3402,7 @@
     <x v="145"/>
     <x v="1"/>
     <s v="KI2K"/>
-    <s v="K-Invert 2K"/>
+    <x v="20"/>
     <n v="8"/>
     <n v="3064"/>
     <n v="24512"/>
@@ -3361,7 +3414,7 @@
     <x v="146"/>
     <x v="3"/>
     <s v="KE9W"/>
-    <s v="K-Eco Energy Bulbs 9W "/>
+    <x v="7"/>
     <n v="1"/>
     <n v="7"/>
     <n v="7"/>
@@ -3373,7 +3426,7 @@
     <x v="147"/>
     <x v="2"/>
     <s v="KEAAA12"/>
-    <s v="K-Eco  AAA NiMH rechargeable batteries (12-pack)"/>
+    <x v="6"/>
     <n v="17"/>
     <n v="18.8"/>
     <n v="319.60000000000002"/>
@@ -3385,7 +3438,7 @@
     <x v="148"/>
     <x v="3"/>
     <s v="KE20W08"/>
-    <s v="K-Eco Energy Bulbs 20W  (8-pack)"/>
+    <x v="15"/>
     <n v="5"/>
     <n v="14.4"/>
     <n v="72"/>
@@ -3397,7 +3450,7 @@
     <x v="148"/>
     <x v="3"/>
     <s v="KE23W04"/>
-    <s v="K-Eco Energy Bulbs 23W (4-pack)"/>
+    <x v="25"/>
     <n v="1"/>
     <n v="16"/>
     <n v="16"/>
@@ -3409,7 +3462,7 @@
     <x v="149"/>
     <x v="3"/>
     <s v="KE23W04"/>
-    <s v="K-Eco Energy Bulbs 23W (4-pack)"/>
+    <x v="25"/>
     <n v="18"/>
     <n v="18"/>
     <n v="324"/>
@@ -3421,7 +3474,7 @@
     <x v="150"/>
     <x v="2"/>
     <s v="KEAA06"/>
-    <s v="K-Eco AA  NiMH rechargeable batteries (6-pack)"/>
+    <x v="11"/>
     <n v="18"/>
     <n v="8.35"/>
     <n v="150.29999999999998"/>
@@ -3433,7 +3486,7 @@
     <x v="151"/>
     <x v="0"/>
     <s v="KE200"/>
-    <s v="K-Eco 200"/>
+    <x v="51"/>
     <n v="10"/>
     <n v="360"/>
     <n v="3600"/>
@@ -3445,7 +3498,7 @@
     <x v="152"/>
     <x v="3"/>
     <s v="KE23W08"/>
-    <s v="K-Eco Energy Bulbs 23W  (8-pack)"/>
+    <x v="22"/>
     <n v="11"/>
     <n v="27.5"/>
     <n v="302.5"/>
@@ -3457,7 +3510,7 @@
     <x v="153"/>
     <x v="4"/>
     <s v="KEBR5"/>
-    <s v="K-Eco Breeze Mini "/>
+    <x v="33"/>
     <n v="16"/>
     <n v="56"/>
     <n v="896"/>
@@ -3469,7 +3522,7 @@
     <x v="153"/>
     <x v="1"/>
     <s v="KI7K"/>
-    <s v="K-Invert 7K"/>
+    <x v="2"/>
     <n v="7"/>
     <n v="10714"/>
     <n v="74998"/>
@@ -3481,7 +3534,7 @@
     <x v="154"/>
     <x v="1"/>
     <s v="KI9K"/>
-    <s v="K-Invert 9K"/>
+    <x v="1"/>
     <n v="5"/>
     <n v="19806"/>
     <n v="99030"/>
@@ -3493,7 +3546,7 @@
     <x v="155"/>
     <x v="0"/>
     <s v="KE325"/>
-    <s v="K-Eco 325"/>
+    <x v="43"/>
     <n v="3"/>
     <n v="576.75"/>
     <n v="1730.25"/>
@@ -3505,7 +3558,7 @@
     <x v="155"/>
     <x v="5"/>
     <s v="KEPATH01"/>
-    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery"/>
+    <x v="23"/>
     <n v="1"/>
     <n v="11.25"/>
     <n v="11.25"/>
@@ -3517,7 +3570,7 @@
     <x v="155"/>
     <x v="1"/>
     <s v="KI2K"/>
-    <s v="K-Invert 2K"/>
+    <x v="20"/>
     <n v="8"/>
     <n v="3066"/>
     <n v="24528"/>
@@ -3529,7 +3582,7 @@
     <x v="156"/>
     <x v="0"/>
     <s v="KE450"/>
-    <s v="K-Eco 450"/>
+    <x v="39"/>
     <n v="11"/>
     <n v="797.5"/>
     <n v="8772.5"/>
@@ -3541,7 +3594,7 @@
     <x v="156"/>
     <x v="1"/>
     <s v="KI9K"/>
-    <s v="K-Invert 9K"/>
+    <x v="1"/>
     <n v="11"/>
     <n v="19803"/>
     <n v="217833"/>
@@ -3553,7 +3606,7 @@
     <x v="157"/>
     <x v="4"/>
     <s v="KEBL600"/>
-    <s v="K-Eco Blast 600"/>
+    <x v="48"/>
     <n v="1"/>
     <n v="1032"/>
     <n v="1032"/>
@@ -3565,7 +3618,7 @@
     <x v="158"/>
     <x v="0"/>
     <s v="KE625"/>
-    <s v="K-Eco 625"/>
+    <x v="0"/>
     <n v="3"/>
     <n v="1201.23"/>
     <n v="3603.69"/>
@@ -3577,7 +3630,7 @@
     <x v="159"/>
     <x v="4"/>
     <s v="KEBL800"/>
-    <s v="K-Eco Blast 800"/>
+    <x v="46"/>
     <n v="12"/>
     <n v="1282"/>
     <n v="15384"/>
@@ -3589,7 +3642,7 @@
     <x v="160"/>
     <x v="2"/>
     <s v="KE36Li"/>
-    <s v="K-Eco 36-volt Lithium-ion solar backup battery"/>
+    <x v="10"/>
     <n v="12"/>
     <n v="7510"/>
     <n v="90120"/>
@@ -3601,7 +3654,7 @@
     <x v="161"/>
     <x v="0"/>
     <s v="KE625"/>
-    <s v="K-Eco 625"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="1201.23"/>
     <n v="1201.23"/>
@@ -3613,7 +3666,7 @@
     <x v="161"/>
     <x v="1"/>
     <s v="KI13K"/>
-    <s v="K-Invert 13K"/>
+    <x v="4"/>
     <n v="18"/>
     <n v="28604"/>
     <n v="514872"/>
@@ -3625,7 +3678,7 @@
     <x v="162"/>
     <x v="0"/>
     <s v="KE250X"/>
-    <s v="K-Eco 250x (same power, smaller footprint)"/>
+    <x v="44"/>
     <n v="12"/>
     <n v="660"/>
     <n v="7920"/>
@@ -3637,7 +3690,7 @@
     <x v="163"/>
     <x v="3"/>
     <s v="KE23W04"/>
-    <s v="K-Eco Energy Bulbs 23W (4-pack)"/>
+    <x v="25"/>
     <n v="12"/>
     <n v="19"/>
     <n v="228"/>
@@ -3649,7 +3702,7 @@
     <x v="164"/>
     <x v="0"/>
     <s v="KE450"/>
-    <s v="K-Eco 450"/>
+    <x v="39"/>
     <n v="17"/>
     <n v="796.5"/>
     <n v="13540.5"/>
@@ -3661,7 +3714,7 @@
     <x v="165"/>
     <x v="0"/>
     <s v="KE001"/>
-    <s v="K-Eco phone charger"/>
+    <x v="21"/>
     <n v="6"/>
     <n v="17.850000000000001"/>
     <n v="107.10000000000001"/>
@@ -3673,7 +3726,7 @@
     <x v="166"/>
     <x v="4"/>
     <s v="KEBL1200"/>
-    <s v="K-Eco Blast 1200"/>
+    <x v="17"/>
     <n v="7"/>
     <n v="2310"/>
     <n v="16170"/>
@@ -3685,7 +3738,7 @@
     <x v="166"/>
     <x v="3"/>
     <s v="KE20W"/>
-    <s v="K-Eco Energy Bulbs 20W "/>
+    <x v="50"/>
     <n v="17"/>
     <n v="11.65"/>
     <n v="198.05"/>
@@ -3697,7 +3750,7 @@
     <x v="167"/>
     <x v="0"/>
     <s v="KE700"/>
-    <s v="K-Eco 700"/>
+    <x v="45"/>
     <n v="13"/>
     <n v="1504"/>
     <n v="19552"/>
@@ -3709,7 +3762,7 @@
     <x v="167"/>
     <x v="2"/>
     <s v="KEAA12"/>
-    <s v="K-Eco AA  NiMH rechargeable batteries (12-pack)"/>
+    <x v="40"/>
     <n v="7"/>
     <n v="18.5"/>
     <n v="129.5"/>
@@ -3721,7 +3774,7 @@
     <x v="168"/>
     <x v="0"/>
     <s v="KE250"/>
-    <s v="K-Eco 250"/>
+    <x v="18"/>
     <n v="4"/>
     <n v="442.5"/>
     <n v="1770"/>
@@ -3733,7 +3786,7 @@
     <x v="168"/>
     <x v="1"/>
     <s v="KI7K"/>
-    <s v="K-Invert 7K"/>
+    <x v="2"/>
     <n v="15"/>
     <n v="10718"/>
     <n v="160770"/>
@@ -3745,7 +3798,7 @@
     <x v="169"/>
     <x v="0"/>
     <s v="KE001"/>
-    <s v="K-Eco phone charger"/>
+    <x v="21"/>
     <n v="6"/>
     <n v="18.850000000000001"/>
     <n v="113.10000000000001"/>
@@ -3757,7 +3810,7 @@
     <x v="170"/>
     <x v="3"/>
     <s v="KE23W08"/>
-    <s v="K-Eco Energy Bulbs 23W  (8-pack)"/>
+    <x v="22"/>
     <n v="18"/>
     <n v="20.5"/>
     <n v="369"/>
@@ -3769,7 +3822,7 @@
     <x v="171"/>
     <x v="3"/>
     <s v="KE9W08"/>
-    <s v="K-Eco Energy Bulbs 9W  (8-pack)"/>
+    <x v="19"/>
     <n v="1"/>
     <n v="16.5"/>
     <n v="16.5"/>
@@ -3781,7 +3834,7 @@
     <x v="172"/>
     <x v="4"/>
     <s v="KEBL200"/>
-    <s v="K-Eco Blast 200"/>
+    <x v="31"/>
     <n v="15"/>
     <n v="558"/>
     <n v="8370"/>
@@ -3793,7 +3846,7 @@
     <x v="173"/>
     <x v="5"/>
     <s v="KEPATH01"/>
-    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery"/>
+    <x v="23"/>
     <n v="5"/>
     <n v="7.25"/>
     <n v="36.25"/>
@@ -3805,7 +3858,7 @@
     <x v="174"/>
     <x v="0"/>
     <s v="KE275"/>
-    <s v="K-Eco 275"/>
+    <x v="34"/>
     <n v="6"/>
     <n v="488.25"/>
     <n v="2929.5"/>
@@ -3817,7 +3870,7 @@
     <x v="175"/>
     <x v="3"/>
     <s v="KE23W"/>
-    <s v="K-Eco Energy Bulbs 23W "/>
+    <x v="9"/>
     <n v="11"/>
     <n v="13.8"/>
     <n v="151.80000000000001"/>
@@ -3829,7 +3882,7 @@
     <x v="176"/>
     <x v="0"/>
     <s v="KE180"/>
-    <s v="K-Eco 180"/>
+    <x v="30"/>
     <n v="9"/>
     <n v="317"/>
     <n v="2853"/>
@@ -3841,7 +3894,7 @@
     <x v="177"/>
     <x v="4"/>
     <s v="KEBL400"/>
-    <s v="K-Eco Blast 400"/>
+    <x v="37"/>
     <n v="13"/>
     <n v="886"/>
     <n v="11518"/>
@@ -3853,7 +3906,7 @@
     <x v="178"/>
     <x v="5"/>
     <s v="KEPATH08"/>
-    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery (8-pack)"/>
+    <x v="32"/>
     <n v="17"/>
     <n v="43.18"/>
     <n v="734.06"/>
@@ -3865,7 +3918,7 @@
     <x v="179"/>
     <x v="4"/>
     <s v="KEBL800"/>
-    <s v="K-Eco Blast 800"/>
+    <x v="46"/>
     <n v="12"/>
     <n v="1284"/>
     <n v="15408"/>
@@ -3877,7 +3930,7 @@
     <x v="180"/>
     <x v="0"/>
     <s v="KE180"/>
-    <s v="K-Eco 180"/>
+    <x v="30"/>
     <n v="15"/>
     <n v="324"/>
     <n v="4860"/>
@@ -3889,7 +3942,7 @@
     <x v="181"/>
     <x v="4"/>
     <s v="KEBL400"/>
-    <s v="K-Eco Blast 400"/>
+    <x v="37"/>
     <n v="13"/>
     <n v="882"/>
     <n v="11466"/>
@@ -3901,7 +3954,7 @@
     <x v="182"/>
     <x v="2"/>
     <s v="KEAAA06"/>
-    <s v="K-Eco  AAA NiMH rechargeable batteries  (6-pack)"/>
+    <x v="38"/>
     <n v="2"/>
     <n v="12.5"/>
     <n v="25"/>
@@ -3913,7 +3966,7 @@
     <x v="182"/>
     <x v="3"/>
     <s v="KE13W08"/>
-    <s v="K-Eco Energy Bulbs 13W  (8-pack)"/>
+    <x v="12"/>
     <n v="10"/>
     <n v="14.25"/>
     <n v="142.5"/>
@@ -3925,7 +3978,7 @@
     <x v="183"/>
     <x v="3"/>
     <s v="KE23W"/>
-    <s v="K-Eco Energy Bulbs 23W "/>
+    <x v="9"/>
     <n v="13"/>
     <n v="13.8"/>
     <n v="179.4"/>
@@ -3937,7 +3990,7 @@
     <x v="184"/>
     <x v="2"/>
     <s v="KEAA06"/>
-    <s v="K-Eco AA  NiMH rechargeable batteries (6-pack)"/>
+    <x v="11"/>
     <n v="16"/>
     <n v="16.350000000000001"/>
     <n v="261.60000000000002"/>
@@ -3949,7 +4002,7 @@
     <x v="185"/>
     <x v="3"/>
     <s v="KE13W04"/>
-    <s v="K-Eco Energy Bulbs 13W (4-pack)"/>
+    <x v="47"/>
     <n v="6"/>
     <n v="16.55"/>
     <n v="99.300000000000011"/>
@@ -3961,7 +4014,7 @@
     <x v="186"/>
     <x v="0"/>
     <s v="KE001"/>
-    <s v="K-Eco phone charger"/>
+    <x v="21"/>
     <n v="7"/>
     <n v="19.850000000000001"/>
     <n v="138.95000000000002"/>
@@ -3973,7 +4026,7 @@
     <x v="187"/>
     <x v="1"/>
     <s v="KI20K"/>
-    <s v="K-Invert 20K"/>
+    <x v="42"/>
     <n v="11"/>
     <n v="44001"/>
     <n v="484011"/>
@@ -3985,7 +4038,7 @@
     <x v="188"/>
     <x v="0"/>
     <s v="KE5"/>
-    <s v="K-Eco Mini "/>
+    <x v="5"/>
     <n v="8"/>
     <n v="43.95"/>
     <n v="351.6"/>
@@ -3997,7 +4050,7 @@
     <x v="189"/>
     <x v="1"/>
     <s v="KI13K"/>
-    <s v="K-Invert 13K"/>
+    <x v="4"/>
     <n v="4"/>
     <n v="28606"/>
     <n v="114424"/>
@@ -4009,7 +4062,7 @@
     <x v="190"/>
     <x v="2"/>
     <s v="KEAA06"/>
-    <s v="K-Eco AA  NiMH rechargeable batteries (6-pack)"/>
+    <x v="11"/>
     <n v="4"/>
     <n v="10.35"/>
     <n v="41.4"/>
@@ -4021,7 +4074,7 @@
     <x v="191"/>
     <x v="2"/>
     <s v="KE48Li"/>
-    <s v="K-Eco 48-volt Lithium-ion solar backup battery"/>
+    <x v="35"/>
     <n v="11"/>
     <n v="13235"/>
     <n v="145585"/>
@@ -4033,7 +4086,7 @@
     <x v="192"/>
     <x v="3"/>
     <s v="KE20W04"/>
-    <s v="K-Eco Energy Bulbs 20W (4-pack)"/>
+    <x v="16"/>
     <n v="7"/>
     <n v="17.45"/>
     <n v="122.14999999999999"/>
@@ -4045,7 +4098,7 @@
     <x v="193"/>
     <x v="4"/>
     <s v="KEBR5"/>
-    <s v="K-Eco Breeze Mini "/>
+    <x v="33"/>
     <n v="17"/>
     <n v="59"/>
     <n v="1003"/>
@@ -4057,7 +4110,7 @@
     <x v="194"/>
     <x v="0"/>
     <s v="KE5"/>
-    <s v="K-Eco Mini "/>
+    <x v="5"/>
     <n v="15"/>
     <n v="46.95"/>
     <n v="704.25"/>
@@ -4069,7 +4122,7 @@
     <x v="195"/>
     <x v="3"/>
     <s v="KE20W"/>
-    <s v="K-Eco Energy Bulbs 20W "/>
+    <x v="50"/>
     <n v="13"/>
     <n v="9.65"/>
     <n v="125.45"/>
@@ -4081,7 +4134,7 @@
     <x v="196"/>
     <x v="3"/>
     <s v="KE20W08"/>
-    <s v="K-Eco Energy Bulbs 20W  (8-pack)"/>
+    <x v="15"/>
     <n v="15"/>
     <n v="14.4"/>
     <n v="216"/>
@@ -4093,7 +4146,7 @@
     <x v="197"/>
     <x v="0"/>
     <s v="KE325X"/>
-    <s v="K-Eco 325x (same power, smaller footprint)"/>
+    <x v="36"/>
     <n v="16"/>
     <n v="895.5"/>
     <n v="14328"/>
@@ -4105,7 +4158,7 @@
     <x v="198"/>
     <x v="3"/>
     <s v="KE23W04"/>
-    <s v="K-Eco Energy Bulbs 23W (4-pack)"/>
+    <x v="25"/>
     <n v="10"/>
     <n v="14"/>
     <n v="140"/>
@@ -4117,7 +4170,7 @@
     <x v="199"/>
     <x v="4"/>
     <s v="KEBL400"/>
-    <s v="K-Eco Blast 400"/>
+    <x v="37"/>
     <n v="1"/>
     <n v="889"/>
     <n v="889"/>
@@ -4129,7 +4182,7 @@
     <x v="200"/>
     <x v="3"/>
     <s v="KE23W"/>
-    <s v="K-Eco Energy Bulbs 23W "/>
+    <x v="9"/>
     <n v="7"/>
     <n v="13.8"/>
     <n v="96.600000000000009"/>
@@ -4141,7 +4194,7 @@
     <x v="201"/>
     <x v="0"/>
     <s v="KE200"/>
-    <s v="K-Eco 200"/>
+    <x v="51"/>
     <n v="17"/>
     <n v="351"/>
     <n v="5967"/>
@@ -4153,7 +4206,7 @@
     <x v="202"/>
     <x v="3"/>
     <s v="KE23W04"/>
-    <s v="K-Eco Energy Bulbs 23W (4-pack)"/>
+    <x v="25"/>
     <n v="7"/>
     <n v="14"/>
     <n v="98"/>
@@ -4165,7 +4218,7 @@
     <x v="203"/>
     <x v="2"/>
     <s v="KEAAA06"/>
-    <s v="K-Eco  AAA NiMH rechargeable batteries  (6-pack)"/>
+    <x v="38"/>
     <n v="17"/>
     <n v="9.5"/>
     <n v="161.5"/>
@@ -4177,7 +4230,7 @@
     <x v="204"/>
     <x v="4"/>
     <s v="KEBL400"/>
-    <s v="K-Eco Blast 400"/>
+    <x v="37"/>
     <n v="1"/>
     <n v="883"/>
     <n v="883"/>
@@ -4189,7 +4242,7 @@
     <x v="205"/>
     <x v="2"/>
     <s v="KEAAA06"/>
-    <s v="K-Eco  AAA NiMH rechargeable batteries  (6-pack)"/>
+    <x v="38"/>
     <n v="18"/>
     <n v="9.5"/>
     <n v="171"/>
@@ -4201,7 +4254,7 @@
     <x v="206"/>
     <x v="1"/>
     <s v="KI4K"/>
-    <s v="K-Invert 4K"/>
+    <x v="27"/>
     <n v="11"/>
     <n v="6128"/>
     <n v="67408"/>
@@ -4213,7 +4266,7 @@
     <x v="207"/>
     <x v="0"/>
     <s v="KE300"/>
-    <s v="K-Eco 300"/>
+    <x v="49"/>
     <n v="14"/>
     <n v="531"/>
     <n v="7434"/>
@@ -4225,7 +4278,7 @@
     <x v="208"/>
     <x v="4"/>
     <s v="KEBL100"/>
-    <s v="K-Eco Blast 100"/>
+    <x v="13"/>
     <n v="9"/>
     <n v="281"/>
     <n v="2529"/>
@@ -4237,7 +4290,7 @@
     <x v="209"/>
     <x v="2"/>
     <s v="KE12Li"/>
-    <s v="K-Eco 12-volt Lithium-ion solar backup battery"/>
+    <x v="3"/>
     <n v="5"/>
     <n v="4504"/>
     <n v="22520"/>
@@ -4249,7 +4302,7 @@
     <x v="209"/>
     <x v="2"/>
     <s v="KE18Li"/>
-    <s v="K-Eco 18-volt Lithium-ion solar backup battery"/>
+    <x v="26"/>
     <n v="13"/>
     <n v="5205"/>
     <n v="67665"/>
@@ -4261,7 +4314,7 @@
     <x v="209"/>
     <x v="4"/>
     <s v="KEBL100"/>
-    <s v="K-Eco Blast 100"/>
+    <x v="13"/>
     <n v="7"/>
     <n v="282"/>
     <n v="1974"/>
@@ -4273,7 +4326,7 @@
     <x v="210"/>
     <x v="3"/>
     <s v="KE13W08"/>
-    <s v="K-Eco Energy Bulbs 13W  (8-pack)"/>
+    <x v="12"/>
     <n v="14"/>
     <n v="21.25"/>
     <n v="297.5"/>
@@ -4285,7 +4338,7 @@
     <x v="211"/>
     <x v="3"/>
     <s v="KE20W08"/>
-    <s v="K-Eco Energy Bulbs 20W  (8-pack)"/>
+    <x v="15"/>
     <n v="6"/>
     <n v="21.4"/>
     <n v="128.39999999999998"/>
@@ -4297,7 +4350,7 @@
     <x v="212"/>
     <x v="2"/>
     <s v="KEAA12"/>
-    <s v="K-Eco AA  NiMH rechargeable batteries (12-pack)"/>
+    <x v="40"/>
     <n v="18"/>
     <n v="13.5"/>
     <n v="243"/>
@@ -4309,7 +4362,7 @@
     <x v="213"/>
     <x v="5"/>
     <s v="KEPATH12"/>
-    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery (12-pack)"/>
+    <x v="28"/>
     <n v="1"/>
     <n v="44.92"/>
     <n v="44.92"/>
@@ -4321,7 +4374,7 @@
     <x v="214"/>
     <x v="5"/>
     <s v="KEPATH04"/>
-    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery (4-pack)"/>
+    <x v="24"/>
     <n v="14"/>
     <n v="23.03"/>
     <n v="322.42"/>
@@ -4333,7 +4386,7 @@
     <x v="215"/>
     <x v="2"/>
     <s v="KEAA06"/>
-    <s v="K-Eco AA  NiMH rechargeable batteries (6-pack)"/>
+    <x v="11"/>
     <n v="4"/>
     <n v="11.35"/>
     <n v="45.4"/>
@@ -4345,7 +4398,7 @@
     <x v="216"/>
     <x v="3"/>
     <s v="KE9W08"/>
-    <s v="K-Eco Energy Bulbs 9W  (8-pack)"/>
+    <x v="19"/>
     <n v="16"/>
     <n v="12.5"/>
     <n v="200"/>
@@ -4357,7 +4410,7 @@
     <x v="217"/>
     <x v="0"/>
     <s v="KE325X"/>
-    <s v="K-Eco 325x (same power, smaller footprint)"/>
+    <x v="36"/>
     <n v="14"/>
     <n v="891.5"/>
     <n v="12481"/>
@@ -4369,7 +4422,7 @@
     <x v="217"/>
     <x v="5"/>
     <s v="KEPATH01"/>
-    <s v="K-Eco Solar Path designer stake lighting w/ rechargeable NiCd battery"/>
+    <x v="23"/>
     <n v="12"/>
     <n v="13.25"/>
     <n v="159"/>
@@ -4381,7 +4434,7 @@
     <x v="218"/>
     <x v="0"/>
     <s v="KE575"/>
-    <s v="K-Eco 575"/>
+    <x v="29"/>
     <n v="8"/>
     <n v="1012.25"/>
     <n v="8098"/>
@@ -4393,7 +4446,7 @@
     <x v="218"/>
     <x v="3"/>
     <s v="KE23W04"/>
-    <s v="K-Eco Energy Bulbs 23W (4-pack)"/>
+    <x v="25"/>
     <n v="15"/>
     <n v="13"/>
     <n v="195"/>
@@ -4405,7 +4458,7 @@
     <x v="219"/>
     <x v="3"/>
     <s v="KE20W08"/>
-    <s v="K-Eco Energy Bulbs 20W  (8-pack)"/>
+    <x v="15"/>
     <n v="13"/>
     <n v="13.4"/>
     <n v="174.20000000000002"/>
@@ -4417,7 +4470,7 @@
     <x v="220"/>
     <x v="4"/>
     <s v="KEBR5"/>
-    <s v="K-Eco Breeze Mini "/>
+    <x v="33"/>
     <n v="8"/>
     <n v="58"/>
     <n v="464"/>
@@ -4429,7 +4482,7 @@
     <x v="221"/>
     <x v="4"/>
     <s v="KEBL100"/>
-    <s v="K-Eco Blast 100"/>
+    <x v="13"/>
     <n v="18"/>
     <n v="289"/>
     <n v="5202"/>
@@ -4441,7 +4494,7 @@
     <x v="221"/>
     <x v="4"/>
     <s v="KEBL200"/>
-    <s v="K-Eco Blast 200"/>
+    <x v="31"/>
     <n v="14"/>
     <n v="557"/>
     <n v="7798"/>
@@ -4453,7 +4506,7 @@
     <x v="222"/>
     <x v="0"/>
     <s v="KE575"/>
-    <s v="K-Eco 575"/>
+    <x v="29"/>
     <n v="2"/>
     <n v="1015.25"/>
     <n v="2030.5"/>
@@ -4465,7 +4518,7 @@
     <x v="223"/>
     <x v="2"/>
     <s v="KEAAA06"/>
-    <s v="K-Eco  AAA NiMH rechargeable batteries  (6-pack)"/>
+    <x v="38"/>
     <n v="8"/>
     <n v="9.5"/>
     <n v="76"/>
@@ -4477,7 +4530,7 @@
     <x v="224"/>
     <x v="3"/>
     <s v="KE13W08"/>
-    <s v="K-Eco Energy Bulbs 13W  (8-pack)"/>
+    <x v="12"/>
     <n v="2"/>
     <n v="21.25"/>
     <n v="42.5"/>
@@ -4489,7 +4542,7 @@
     <x v="225"/>
     <x v="0"/>
     <s v="KE5"/>
-    <s v="K-Eco Mini "/>
+    <x v="5"/>
     <n v="18"/>
     <n v="40.950000000000003"/>
     <n v="737.1"/>
@@ -4501,7 +4554,7 @@
     <x v="226"/>
     <x v="2"/>
     <s v="KEAAA12"/>
-    <s v="K-Eco  AAA NiMH rechargeable batteries (12-pack)"/>
+    <x v="6"/>
     <n v="5"/>
     <n v="12.8"/>
     <n v="64"/>
@@ -4513,7 +4566,7 @@
     <x v="226"/>
     <x v="1"/>
     <s v="KI4K"/>
-    <s v="K-Invert 4K"/>
+    <x v="27"/>
     <n v="7"/>
     <n v="6127"/>
     <n v="42889"/>
@@ -4525,7 +4578,7 @@
     <x v="227"/>
     <x v="4"/>
     <s v="KEBL100"/>
-    <s v="K-Eco Blast 100"/>
+    <x v="13"/>
     <n v="13"/>
     <n v="290"/>
     <n v="3770"/>
@@ -4534,7 +4587,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6223BFF3-72F3-498B-873F-ADFE229340AC}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6223BFF3-72F3-498B-873F-ADFE229340AC}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D13" firstHeaderRow="1" firstDataRow="4" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -4571,7 +4624,63 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="53">
+        <item x="38"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="30"/>
+        <item x="26"/>
+        <item x="51"/>
+        <item x="41"/>
+        <item x="18"/>
+        <item x="44"/>
+        <item x="34"/>
+        <item x="49"/>
+        <item x="43"/>
+        <item x="36"/>
+        <item x="10"/>
+        <item x="39"/>
+        <item x="35"/>
+        <item x="29"/>
+        <item x="0"/>
+        <item x="45"/>
+        <item x="40"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="31"/>
+        <item x="37"/>
+        <item x="48"/>
+        <item x="46"/>
+        <item x="33"/>
+        <item x="8"/>
+        <item x="12"/>
+        <item x="47"/>
+        <item x="50"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="9"/>
+        <item x="22"/>
+        <item x="25"/>
+        <item x="7"/>
+        <item x="19"/>
+        <item x="14"/>
+        <item x="5"/>
+        <item x="21"/>
+        <item x="23"/>
+        <item x="28"/>
+        <item x="24"/>
+        <item x="32"/>
+        <item x="4"/>
+        <item x="42"/>
+        <item x="20"/>
+        <item x="27"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
@@ -4676,7 +4785,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4978,12 +5087,12 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
@@ -5056,26 +5165,26 @@
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D4" t="s">
         <v>251</v>
-      </c>
-      <c r="D4" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -5164,7 +5273,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B13" s="2">
         <v>2513605.79</v>
@@ -5189,7 +5298,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
